--- a/data/常用接口文档.xlsx
+++ b/data/常用接口文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD1BFE9-E414-46B2-B277-21575A6EB72C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5225EBAD-E7DF-4895-9C1B-8147BFE7E33A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>接口url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,9 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.96:8092/base/user/share/data</t>
-  </si>
-  <si>
     <t>同步人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,9 +224,6 @@
   <si>
     <t>数据更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.96:8092/jcw/produce/safetyTool/sync/list</t>
   </si>
   <si>
     <t>安全用具</t>
@@ -348,8 +342,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*apppackage
+    <t>http://192.168.1.96:8092/base/user/share/data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.96:8092/jcw/produce/safetyTool/sync/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deptId
+date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑卡控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若传入date，则筛选update_date&gt;date的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*appPackage
 versionCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">如果syncLastTime参数为空，查询时会存在卡控条件“delFlag = 0”，即只查询出正常状态的数据；
+如果syncLastTime参数不为空，查询不卡控删除状态”，查询条件update_date &gt; syncLastTime 。
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1031,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB6A807-067B-495D-970A-8240F0202EFE}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1043,18 +1068,20 @@
     <col min="2" max="2" width="51.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="7"/>
     <col min="4" max="4" width="25.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
+    <col min="5" max="5" width="9" style="7"/>
+    <col min="6" max="6" width="31.25" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>2</v>
@@ -1062,8 +1089,11 @@
       <c r="E1" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1073,90 +1103,105 @@
       <c r="C2" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="D2" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="E2" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="D3" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="E3" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F3" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="F5" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1189,13 +1234,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>40</v>
@@ -1203,16 +1248,16 @@
     </row>
     <row r="2" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>27</v>
@@ -1220,16 +1265,16 @@
     </row>
     <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>27</v>
@@ -1237,16 +1282,16 @@
     </row>
     <row r="4" spans="1:5" ht="171" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
@@ -1254,16 +1299,16 @@
     </row>
     <row r="5" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>27</v>

--- a/data/常用接口文档.xlsx
+++ b/data/常用接口文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5225EBAD-E7DF-4895-9C1B-8147BFE7E33A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8AB187-67B3-4FFB-BF83-8DDECE4C2E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="接触网" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="安全保障app" sheetId="3" r:id="rId3"/>
-    <sheet name="沈阳6C" sheetId="4" r:id="rId4"/>
+    <sheet name="test-测试用例" sheetId="5" r:id="rId4"/>
+    <sheet name="沈阳6C" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
   <si>
     <t>接口url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +376,18 @@
     <t xml:space="preserve">如果syncLastTime参数为空，查询时会存在卡控条件“delFlag = 0”，即只查询出正常状态的数据；
 如果syncLastTime参数不为空，查询不卡控删除状态”，查询条件update_date &gt; syncLastTime 。
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apiId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -530,6 +543,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -843,28 +859,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="15"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1056,151 +1072,173 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB6A807-067B-495D-970A-8240F0202EFE}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="51.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="25.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="7"/>
-    <col min="6" max="6" width="31.25" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="9" style="7"/>
+    <col min="3" max="3" width="51.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="7"/>
+    <col min="5" max="5" width="25.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="7"/>
+    <col min="7" max="7" width="31.25" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1212,6 +1250,45 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1644B10B-DA18-40D4-94AB-4A1C6E16E228}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719A5DB6-D8AC-479C-917C-B5C327F80C03}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1246,7 +1323,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>

--- a/data/常用接口文档.xlsx
+++ b/data/常用接口文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8AB187-67B3-4FFB-BF83-8DDECE4C2E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FEF1A9-28B0-4977-A676-507B72FF821B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接触网" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
   <si>
     <t>接口url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,6 +388,75 @@
   </si>
   <si>
     <t>期望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡控数据计划日期在planDateStart至planDateEnd之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>togest-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>togest-002</t>
+  </si>
+  <si>
+    <t>togest-003</t>
+  </si>
+  <si>
+    <t>togest-004</t>
+  </si>
+  <si>
+    <t>togest-005</t>
+  </si>
+  <si>
+    <t>togest-006</t>
+  </si>
+  <si>
+    <t>togestcase-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步部门日期为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步部门日期为当前日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'date':''}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'date':'2020-06-04 00:00:00'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步部门日期不传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>togestcase-002</t>
+  </si>
+  <si>
+    <t>togestcase-003</t>
+  </si>
+  <si>
+    <t>headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content-Type=application/x-www-form-urlencoded</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -547,6 +616,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -558,6 +630,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,28 +934,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="16"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1072,25 +1147,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB6A807-067B-495D-970A-8240F0202EFE}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="15"/>
+    <col min="1" max="1" width="13.5" style="15" customWidth="1"/>
     <col min="2" max="2" width="9" style="7"/>
     <col min="3" max="3" width="51.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="25.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="7"/>
-    <col min="7" max="7" width="31.25" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="7"/>
+    <col min="5" max="5" width="23.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="25.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="7"/>
+    <col min="8" max="8" width="31.25" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>81</v>
       </c>
@@ -1103,19 +1179,22 @@
       <c r="D1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
-        <v>1</v>
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>37</v>
@@ -1126,19 +1205,19 @@
       <c r="D2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
-        <v>2</v>
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>42</v>
@@ -1149,19 +1228,19 @@
       <c r="D3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
-        <v>3</v>
+    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>44</v>
@@ -1172,16 +1251,16 @@
       <c r="D4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
-        <v>4</v>
+    <row r="5" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>45</v>
@@ -1192,19 +1271,19 @@
       <c r="D5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
-        <v>5</v>
+    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>46</v>
@@ -1215,16 +1294,19 @@
       <c r="D6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
-        <v>6</v>
+      <c r="H6" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>50</v>
@@ -1235,10 +1317,13 @@
       <c r="D7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1251,23 +1336,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1644B10B-DA18-40D4-94AB-4A1C6E16E228}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>29</v>
@@ -1280,6 +1369,54 @@
       </c>
       <c r="F1" s="15" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/常用接口文档.xlsx
+++ b/data/常用接口文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FEF1A9-28B0-4977-A676-507B72FF821B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A6AA3D-204D-4861-8FE9-27A0E3FBD85B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接触网" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="安全保障app" sheetId="3" r:id="rId3"/>
     <sheet name="test-测试用例" sheetId="5" r:id="rId4"/>
     <sheet name="沈阳6C" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
   <si>
     <t>接口url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,10 +415,6 @@
     <t>togest-006</t>
   </si>
   <si>
-    <t>togestcase-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同步部门日期为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -446,17 +443,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>togestcase-002</t>
-  </si>
-  <si>
-    <t>togestcase-003</t>
-  </si>
-  <si>
     <t>headers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Content-Type=application/x-www-form-urlencoded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>togest-001-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>togest-001-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>togest-001-003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>togest-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>togest-002-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -619,6 +646,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -632,7 +665,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -934,28 +967,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="17"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1149,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB6A807-067B-495D-970A-8240F0202EFE}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1180,7 +1213,7 @@
         <v>48</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>2</v>
@@ -1318,7 +1351,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>54</v>
@@ -1336,16 +1369,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1644B10B-DA18-40D4-94AB-4A1C6E16E228}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
@@ -1355,7 +1388,7 @@
       <c r="A1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>81</v>
       </c>
       <c r="C1" s="15" t="s">
@@ -1372,54 +1405,70 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
         <v>91</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
         <v>92</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>94</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
         <v>93</v>
       </c>
-      <c r="D3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1532,4 +1581,72 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20813B0-FD94-4182-9509-67D14F6F5B93}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D2:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/常用接口文档.xlsx
+++ b/data/常用接口文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A6AA3D-204D-4861-8FE9-27A0E3FBD85B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6E3553-91B5-4186-92DB-563DB23C4C42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1372,7 +1372,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
